--- a/exports/returns_analysis.xlsx
+++ b/exports/returns_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misnm\omnicart-analytics\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06435DE2-E6A2-4B0D-97D3-1BEC44B4A14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AC5ADA-A085-432A-A9AF-4D1076AB44C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D12DF00E-D3DE-470C-BBB8-6F9C9CFB71B0}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -577,7 +577,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -590,7 +590,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -671,6 +670,71 @@
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Returns by Reason</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -699,19 +763,22 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -757,19 +824,22 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -1011,13 +1081,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:ln w="0"/>
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
@@ -1043,13 +1118,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -1081,13 +1161,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1131,20 +1216,25 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:ln w="0"/>
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:rPr lang="en-IN"/>
                   <a:t>total</a:t>
                 </a:r>
               </a:p>
@@ -1153,10 +1243,9 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:rPr lang="en-IN"/>
                   <a:t>returns</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1173,13 +1262,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -1205,13 +1299,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1247,13 +1346,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1278,6 +1382,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1223951887"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1306,13 +1411,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1353,7 +1463,19 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="0" cap="none" spc="0">
+          <a:ln w="0"/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="dk1">
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2033,7 +2155,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{079DE942-C32C-49ED-8301-95294E84D5A0}" name="returns_pivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Reason">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{079DE942-C32C-49ED-8301-95294E84D5A0}" name="returns_pivot" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Reason">
   <location ref="A4:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -2622,7 +2744,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>486</v>
       </c>
       <c r="C5" s="1">
@@ -2633,7 +2755,7 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>469</v>
       </c>
       <c r="C6" s="1">
@@ -2644,7 +2766,7 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>470</v>
       </c>
       <c r="C7" s="1">
@@ -2655,7 +2777,7 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>449</v>
       </c>
       <c r="C8" s="1">
@@ -2666,7 +2788,7 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>435</v>
       </c>
       <c r="C9" s="1">
@@ -2677,7 +2799,7 @@
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>472</v>
       </c>
       <c r="C10" s="1">
@@ -2688,7 +2810,7 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>2781</v>
       </c>
       <c r="C11" s="1">
